--- a/data/trans_orig/P36B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9B0547-B809-4438-9005-F5EAB2E15382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A578AB7-5EE5-4717-94EF-640F5D332249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3108EA58-EF9D-4385-8A2F-C56026D2B645}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C995386-64FA-494A-8E53-E5194A3A237B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="793">
   <si>
     <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -76,2404 +76,2347 @@
     <t>1,93%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>55,15%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
+    <t>56,92%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>55,04%</t>
   </si>
   <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>29,81%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E46292-0809-4D37-AE04-02DD2F0510BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D3D350-8240-4579-BB46-318DF8D0C476}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3216,10 +3159,10 @@
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3228,13 +3171,13 @@
         <v>8162</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3243,13 +3186,13 @@
         <v>16924</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,7 +3281,7 @@
         <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3347,10 +3290,10 @@
         <v>23013</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>68</v>
@@ -3473,10 +3416,10 @@
         <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -3485,13 +3428,13 @@
         <v>146434</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
@@ -3500,13 +3443,13 @@
         <v>283787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3464,13 @@
         <v>6250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3536,13 +3479,13 @@
         <v>8552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3551,13 +3494,13 @@
         <v>14802</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3625,13 +3568,13 @@
         <v>10780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3640,13 +3583,13 @@
         <v>5891</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3655,13 +3598,13 @@
         <v>16671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3619,13 @@
         <v>76876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -3691,13 +3634,13 @@
         <v>53466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -3706,13 +3649,13 @@
         <v>130342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,28 +3670,28 @@
         <v>372155</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>417</v>
       </c>
       <c r="I18" s="7">
-        <v>439819</v>
+        <v>439820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>776</v>
@@ -3757,13 +3700,13 @@
         <v>811974</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,28 +3721,28 @@
         <v>170966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>177</v>
       </c>
       <c r="I19" s="7">
-        <v>184473</v>
+        <v>184474</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>341</v>
@@ -3808,13 +3751,13 @@
         <v>355440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3772,13 @@
         <v>7891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3844,13 +3787,13 @@
         <v>3931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3859,13 +3802,13 @@
         <v>11822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3835,7 @@
         <v>656</v>
       </c>
       <c r="I21" s="7">
-        <v>687581</v>
+        <v>687582</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -3921,7 +3864,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3933,13 +3876,13 @@
         <v>3547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3948,13 +3891,13 @@
         <v>3269</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3963,13 +3906,13 @@
         <v>6817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3927,13 @@
         <v>53195</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -3999,13 +3942,13 @@
         <v>32064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -4014,7 +3957,7 @@
         <v>85259</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>161</v>
@@ -4104,10 +4047,10 @@
         <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -4116,13 +4059,13 @@
         <v>290061</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4080,13 @@
         <v>7545</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -4152,13 +4095,13 @@
         <v>4878</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -4167,13 +4110,13 @@
         <v>12423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,7 +4172,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4241,13 +4184,13 @@
         <v>2344</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4256,13 +4199,13 @@
         <v>3129</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -4271,10 +4214,10 @@
         <v>5473</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>196</v>
@@ -4448,10 +4391,10 @@
         <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4463,10 +4406,10 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -4475,13 +4418,13 @@
         <v>15336</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4480,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4549,10 +4492,10 @@
         <v>965</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>232</v>
@@ -4564,13 +4507,13 @@
         <v>10106</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -4579,10 +4522,10 @@
         <v>11071</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>236</v>
@@ -4756,10 +4699,10 @@
         <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>14</v>
@@ -4768,10 +4711,10 @@
         <v>14446</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>268</v>
@@ -4783,10 +4726,10 @@
         <v>23696</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>270</v>
@@ -4860,10 +4803,10 @@
         <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H40" s="7">
         <v>45</v>
@@ -4887,13 +4830,13 @@
         <v>85707</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4851,13 @@
         <v>416492</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>295</v>
@@ -4923,13 +4866,13 @@
         <v>301649</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>705</v>
@@ -4938,13 +4881,13 @@
         <v>718141</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4902,13 @@
         <v>1937504</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>2064</v>
@@ -4974,13 +4917,13 @@
         <v>2115729</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>3966</v>
@@ -4989,13 +4932,13 @@
         <v>4053232</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +4953,13 @@
         <v>836135</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="H43" s="7">
         <v>843</v>
@@ -5025,13 +4968,13 @@
         <v>863413</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>1660</v>
@@ -5040,13 +4983,13 @@
         <v>1699549</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5004,13 @@
         <v>47249</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>304</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -5076,13 +5019,13 @@
         <v>47754</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>95</v>
@@ -5091,13 +5034,13 @@
         <v>95003</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,7 +5067,7 @@
         <v>3294</v>
       </c>
       <c r="I45" s="7">
-        <v>3375975</v>
+        <v>3375974</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>59</v>
@@ -5153,7 +5096,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5175,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A86E85C-0044-4296-B100-BCC2E2DCC788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B29EED8-D721-4D71-B397-3A8FC167529E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5192,7 +5135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5299,13 +5242,13 @@
         <v>13990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5314,13 +5257,13 @@
         <v>20860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5329,13 +5272,13 @@
         <v>34850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5293,13 @@
         <v>50247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -5365,13 +5308,13 @@
         <v>74904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>124</v>
@@ -5380,13 +5323,13 @@
         <v>125151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5344,13 @@
         <v>291637</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H6" s="7">
         <v>244</v>
@@ -5416,13 +5359,13 @@
         <v>248775</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>528</v>
@@ -5431,13 +5374,13 @@
         <v>540413</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5395,13 @@
         <v>88342</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -5467,13 +5410,13 @@
         <v>75476</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -5482,13 +5425,13 @@
         <v>163817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5446,13 @@
         <v>7724</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5518,13 +5461,13 @@
         <v>10215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -5533,13 +5476,13 @@
         <v>17939</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5550,13 @@
         <v>9152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5622,13 +5565,13 @@
         <v>17645</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5637,13 +5580,13 @@
         <v>26797</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5601,13 @@
         <v>78274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5673,13 +5616,13 @@
         <v>57750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -5688,13 +5631,13 @@
         <v>136024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5652,13 @@
         <v>420731</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H12" s="7">
         <v>340</v>
@@ -5724,13 +5667,13 @@
         <v>364743</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>748</v>
@@ -5739,13 +5682,13 @@
         <v>785474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5703,13 @@
         <v>165500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -5775,13 +5718,13 @@
         <v>146529</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -5790,13 +5733,13 @@
         <v>312030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5754,13 @@
         <v>12551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5826,13 +5769,13 @@
         <v>22427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -5841,10 +5784,10 @@
         <v>34978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>393</v>
@@ -5903,7 +5846,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5930,13 +5873,13 @@
         <v>10587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5945,13 +5888,13 @@
         <v>18136</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5909,13 @@
         <v>57960</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5981,13 +5924,13 @@
         <v>65822</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>116</v>
@@ -5996,13 +5939,13 @@
         <v>123782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +5960,13 @@
         <v>405070</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>400</v>
@@ -6032,13 +5975,13 @@
         <v>424195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>790</v>
@@ -6047,13 +5990,13 @@
         <v>829265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6011,13 @@
         <v>196629</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -6083,13 +6026,13 @@
         <v>184475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>357</v>
@@ -6098,13 +6041,13 @@
         <v>381104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6062,13 @@
         <v>12770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -6134,13 +6077,13 @@
         <v>23775</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -6149,13 +6092,13 @@
         <v>36545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6154,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6223,13 +6166,13 @@
         <v>10111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6238,13 +6181,13 @@
         <v>4394</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6253,13 +6196,13 @@
         <v>14504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6217,13 @@
         <v>43488</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -6289,13 +6232,13 @@
         <v>34887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -6304,13 +6247,13 @@
         <v>78375</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>446</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6268,13 @@
         <v>369544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>248</v>
+        <v>445</v>
       </c>
       <c r="H24" s="7">
         <v>359</v>
@@ -6340,13 +6283,13 @@
         <v>407555</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>692</v>
@@ -6355,13 +6298,13 @@
         <v>777099</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6319,13 @@
         <v>167447</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -6391,13 +6334,13 @@
         <v>151483</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>281</v>
@@ -6406,13 +6349,13 @@
         <v>318930</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6370,13 @@
         <v>23015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6442,13 +6385,13 @@
         <v>13454</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -6457,13 +6400,13 @@
         <v>36469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,7 +6462,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6531,13 +6474,13 @@
         <v>4804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6546,13 +6489,13 @@
         <v>4185</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>475</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -6561,13 +6504,13 @@
         <v>8989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>428</v>
+        <v>274</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6525,13 @@
         <v>16769</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>479</v>
+        <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -6597,13 +6540,13 @@
         <v>35454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -6612,13 +6555,13 @@
         <v>52223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6576,13 @@
         <v>268092</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H30" s="7">
         <v>244</v>
@@ -6648,13 +6591,13 @@
         <v>268308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>247</v>
+        <v>482</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M30" s="7">
         <v>489</v>
@@ -6663,13 +6606,13 @@
         <v>536400</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6627,13 @@
         <v>131694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H31" s="7">
         <v>114</v>
@@ -6699,13 +6642,13 @@
         <v>124939</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M31" s="7">
         <v>234</v>
@@ -6714,13 +6657,13 @@
         <v>256633</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6678,13 @@
         <v>8071</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -6750,13 +6693,13 @@
         <v>10490</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>504</v>
+        <v>310</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -6765,13 +6708,13 @@
         <v>18561</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,7 +6770,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6839,13 +6782,13 @@
         <v>1908</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6854,13 +6797,13 @@
         <v>5171</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>507</v>
+        <v>154</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -6869,13 +6812,13 @@
         <v>7079</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6833,13 @@
         <v>34898</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H35" s="7">
         <v>40</v>
@@ -6905,13 +6848,13 @@
         <v>44222</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M35" s="7">
         <v>72</v>
@@ -6920,13 +6863,13 @@
         <v>79121</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6884,13 @@
         <v>334528</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H36" s="7">
         <v>423</v>
@@ -6956,13 +6899,13 @@
         <v>454032</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="M36" s="7">
         <v>722</v>
@@ -6971,13 +6914,13 @@
         <v>788560</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +6935,13 @@
         <v>171249</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H37" s="7">
         <v>204</v>
@@ -7007,13 +6950,13 @@
         <v>216600</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M37" s="7">
         <v>360</v>
@@ -7022,13 +6965,13 @@
         <v>387850</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +6986,13 @@
         <v>15022</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>15</v>
+        <v>529</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H38" s="7">
         <v>21</v>
@@ -7058,13 +7001,13 @@
         <v>21025</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>539</v>
+        <v>98</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>540</v>
+        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -7073,13 +7016,13 @@
         <v>36047</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>542</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7090,13 @@
         <v>47513</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>543</v>
+        <v>361</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>428</v>
+        <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>95</v>
+        <v>533</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -7165,10 +7108,10 @@
         <v>51</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>544</v>
+        <v>361</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>148</v>
+        <v>534</v>
       </c>
       <c r="M40" s="7">
         <v>101</v>
@@ -7177,13 +7120,13 @@
         <v>110356</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>196</v>
+        <v>529</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>545</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>392</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7141,13 @@
         <v>281636</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="H41" s="7">
         <v>291</v>
@@ -7213,13 +7156,13 @@
         <v>313040</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="M41" s="7">
         <v>558</v>
@@ -7228,13 +7171,13 @@
         <v>594676</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7192,13 @@
         <v>2089602</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>554</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H42" s="7">
         <v>2010</v>
@@ -7264,13 +7207,13 @@
         <v>2167609</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M42" s="7">
         <v>3969</v>
@@ -7279,13 +7222,13 @@
         <v>4257211</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>292</v>
+        <v>548</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>413</v>
+        <v>549</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7243,13 @@
         <v>920862</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H43" s="7">
         <v>834</v>
@@ -7315,13 +7258,13 @@
         <v>899503</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>565</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
         <v>1692</v>
@@ -7330,13 +7273,13 @@
         <v>1820364</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7294,13 @@
         <v>79153</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>570</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="H44" s="7">
         <v>94</v>
@@ -7366,13 +7309,13 @@
         <v>101385</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>573</v>
+        <v>351</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="M44" s="7">
         <v>167</v>
@@ -7381,13 +7324,13 @@
         <v>180538</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>138</v>
+        <v>561</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>103</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7386,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7465,7 +7408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D3EFCB-B1EE-44AE-8E1C-AF0D7413146C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EDBC3C-E2F5-42D9-9285-EB1FD4B8B451}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7482,7 +7425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7589,13 +7532,13 @@
         <v>10749</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>561</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>576</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -7604,13 +7547,13 @@
         <v>15067</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>567</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>579</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -7619,13 +7562,13 @@
         <v>25816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>569</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7583,13 @@
         <v>72430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -7655,13 +7598,13 @@
         <v>68515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -7670,13 +7613,13 @@
         <v>140945</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7634,13 @@
         <v>223384</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
@@ -7706,13 +7649,13 @@
         <v>217389</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="M6" s="7">
         <v>431</v>
@@ -7721,13 +7664,13 @@
         <v>440772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7685,13 @@
         <v>96953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -7757,13 +7700,13 @@
         <v>85650</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>422</v>
+        <v>594</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -7772,13 +7715,13 @@
         <v>182603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7736,13 @@
         <v>11857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7808,13 +7751,13 @@
         <v>8116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>611</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>601</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>612</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -7823,13 +7766,13 @@
         <v>19973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>603</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7840,13 @@
         <v>11010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>570</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -7912,13 +7855,13 @@
         <v>10812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>618</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -7930,10 +7873,10 @@
         <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7891,13 @@
         <v>59005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -7963,13 +7906,13 @@
         <v>65839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>612</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -7978,13 +7921,13 @@
         <v>124844</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7942,13 @@
         <v>318765</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>628</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>311</v>
@@ -8014,13 +7957,13 @@
         <v>304081</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>522</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>622</v>
@@ -8029,13 +7972,13 @@
         <v>622846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +7993,13 @@
         <v>185750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -8065,13 +8008,13 @@
         <v>167444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -8080,13 +8023,13 @@
         <v>353194</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8044,13 @@
         <v>14048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>635</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -8116,13 +8059,13 @@
         <v>14386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -8131,13 +8074,13 @@
         <v>28434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,7 +8136,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8205,13 +8148,13 @@
         <v>4839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -8220,13 +8163,13 @@
         <v>6239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -8235,13 +8178,13 @@
         <v>11078</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>644</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8199,13 @@
         <v>79226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -8271,13 +8214,13 @@
         <v>71875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
@@ -8286,13 +8229,13 @@
         <v>151100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>156</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8250,13 @@
         <v>382712</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>557</v>
+        <v>657</v>
       </c>
       <c r="H18" s="7">
         <v>379</v>
@@ -8322,13 +8265,13 @@
         <v>377505</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="M18" s="7">
         <v>744</v>
@@ -8337,13 +8280,13 @@
         <v>760218</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>668</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8301,13 @@
         <v>186121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>671</v>
+        <v>625</v>
       </c>
       <c r="H19" s="7">
         <v>192</v>
@@ -8373,13 +8316,13 @@
         <v>189483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>667</v>
       </c>
       <c r="M19" s="7">
         <v>371</v>
@@ -8388,13 +8331,13 @@
         <v>375604</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8352,13 @@
         <v>14231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>677</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -8424,13 +8367,13 @@
         <v>15461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>679</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>680</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>681</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -8439,13 +8382,13 @@
         <v>29692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>672</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>682</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>683</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,7 +8444,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8513,13 +8456,13 @@
         <v>4560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>674</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -8528,13 +8471,13 @@
         <v>7708</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>643</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -8543,13 +8486,13 @@
         <v>12268</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>677</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>687</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8507,13 @@
         <v>58562</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>690</v>
+        <v>612</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -8579,13 +8522,13 @@
         <v>54878</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -8594,13 +8537,13 @@
         <v>113441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>693</v>
+        <v>369</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8558,13 @@
         <v>353312</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="H24" s="7">
         <v>330</v>
@@ -8630,13 +8573,13 @@
         <v>354582</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="M24" s="7">
         <v>650</v>
@@ -8645,13 +8588,13 @@
         <v>707894</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>599</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +8609,13 @@
         <v>213533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -8681,13 +8624,13 @@
         <v>204364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="M25" s="7">
         <v>387</v>
@@ -8696,13 +8639,13 @@
         <v>417897</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8660,13 @@
         <v>12163</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>713</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>503</v>
+        <v>702</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -8732,13 +8675,13 @@
         <v>22754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>703</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>194</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>714</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -8747,13 +8690,13 @@
         <v>34917</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,7 +8752,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8821,13 +8764,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>395</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8836,13 +8779,13 @@
         <v>7576</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>718</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8851,13 +8794,13 @@
         <v>7576</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>94</v>
+        <v>708</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,13 +8815,13 @@
         <v>36669</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -8887,13 +8830,13 @@
         <v>32933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>577</v>
+        <v>712</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="M29" s="7">
         <v>57</v>
@@ -8902,13 +8845,13 @@
         <v>69602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8866,13 @@
         <v>284108</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>728</v>
+        <v>687</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7">
         <v>248</v>
@@ -8938,13 +8881,13 @@
         <v>284160</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>369</v>
+        <v>719</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="M30" s="7">
         <v>503</v>
@@ -8953,13 +8896,13 @@
         <v>568269</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>732</v>
+        <v>582</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +8917,13 @@
         <v>143880</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="H31" s="7">
         <v>143</v>
@@ -8989,13 +8932,13 @@
         <v>161095</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>739</v>
+        <v>490</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="M31" s="7">
         <v>270</v>
@@ -9004,13 +8947,13 @@
         <v>304976</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,13 +8968,13 @@
         <v>11019</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>569</v>
+        <v>357</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>732</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -9040,13 +8983,13 @@
         <v>9926</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>188</v>
+        <v>734</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>745</v>
+        <v>471</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -9055,13 +8998,13 @@
         <v>20945</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>747</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,7 +9060,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9129,13 +9072,13 @@
         <v>2702</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>748</v>
+        <v>395</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>749</v>
+        <v>143</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>96</v>
+        <v>736</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -9144,13 +9087,13 @@
         <v>8526</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>750</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>751</v>
+        <v>672</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9159,13 +9102,13 @@
         <v>11228</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,13 +9123,13 @@
         <v>35890</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>754</v>
+        <v>464</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="H35" s="7">
         <v>45</v>
@@ -9195,13 +9138,13 @@
         <v>55556</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>757</v>
+        <v>113</v>
       </c>
       <c r="M35" s="7">
         <v>81</v>
@@ -9210,13 +9153,13 @@
         <v>91446</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,13 +9174,13 @@
         <v>300804</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>762</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>343</v>
@@ -9246,13 +9189,13 @@
         <v>402840</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="M36" s="7">
         <v>660</v>
@@ -9261,13 +9204,13 @@
         <v>703643</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,13 +9225,13 @@
         <v>237675</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="H37" s="7">
         <v>245</v>
@@ -9297,13 +9240,13 @@
         <v>294673</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="M37" s="7">
         <v>501</v>
@@ -9312,13 +9255,13 @@
         <v>532348</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,13 +9276,13 @@
         <v>12253</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>108</v>
+        <v>643</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="H38" s="7">
         <v>12</v>
@@ -9348,13 +9291,13 @@
         <v>13077</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>601</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>779</v>
+        <v>463</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -9363,13 +9306,13 @@
         <v>25329</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>780</v>
+        <v>308</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,13 +9380,13 @@
         <v>33860</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -9452,13 +9395,13 @@
         <v>55929</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>196</v>
+        <v>529</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>504</v>
+        <v>766</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>784</v>
+        <v>569</v>
       </c>
       <c r="M40" s="7">
         <v>84</v>
@@ -9467,13 +9410,13 @@
         <v>89788</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,13 +9431,13 @@
         <v>341781</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="H41" s="7">
         <v>332</v>
@@ -9503,13 +9446,13 @@
         <v>349596</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>205</v>
+        <v>771</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>789</v>
+        <v>475</v>
       </c>
       <c r="M41" s="7">
         <v>647</v>
@@ -9518,13 +9461,13 @@
         <v>691377</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>239</v>
+        <v>772</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,13 +9482,13 @@
         <v>1863085</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>793</v>
+        <v>656</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="H42" s="7">
         <v>1832</v>
@@ -9554,13 +9497,13 @@
         <v>1940557</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="M42" s="7">
         <v>3610</v>
@@ -9569,13 +9512,13 @@
         <v>3803642</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9590,13 +9533,13 @@
         <v>1063912</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>803</v>
+        <v>215</v>
       </c>
       <c r="H43" s="7">
         <v>1035</v>
@@ -9605,13 +9548,13 @@
         <v>1102710</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="M43" s="7">
         <v>2056</v>
@@ -9620,13 +9563,13 @@
         <v>2166622</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9641,13 +9584,13 @@
         <v>75570</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>466</v>
+        <v>672</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>810</v>
+        <v>53</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>608</v>
+        <v>14</v>
       </c>
       <c r="H44" s="7">
         <v>76</v>
@@ -9656,13 +9599,13 @@
         <v>83720</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>270</v>
+        <v>463</v>
       </c>
       <c r="M44" s="7">
         <v>146</v>
@@ -9671,13 +9614,13 @@
         <v>159290</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>536</v>
+        <v>792</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9733,7 +9676,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{185D8AF8-8140-4840-A056-B36988CA7543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E96D9F-E572-4E80-9B69-D5614DDEFC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E62DE24A-9E8E-43A5-9FE4-6DD82DF39A76}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B5AF914-3665-4A7F-B94A-80E108B0C4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="894">
   <si>
     <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,51%</t>
@@ -358,7 +358,7 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -490,7 +490,7 @@
     <t>1,64%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -616,7 +616,7 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -739,1689 +739,1956 @@
     <t>3,19%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
     <t>29,72%</t>
   </si>
   <si>
@@ -2444,9 +2711,6 @@
   </si>
   <si>
     <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
   </si>
   <si>
     <t>2,94%</t>
@@ -2867,8 +3131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FBEC16-D9F9-4D4B-A30F-41C9E613FEDB}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDABBA39-8F55-433A-BD7B-1EB76C2EE662}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4540,31 +4804,31 @@
         <v>235</v>
       </c>
       <c r="H34" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I34" s="7">
-        <v>10106</v>
+        <v>5202</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N34" s="7">
-        <v>11071</v>
+        <v>6167</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>240</v>
@@ -4576,10 +4840,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D35" s="7">
-        <v>38486</v>
+        <v>25289</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>241</v>
@@ -4591,10 +4855,10 @@
         <v>243</v>
       </c>
       <c r="H35" s="7">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I35" s="7">
-        <v>46430</v>
+        <v>20292</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>244</v>
@@ -4606,10 +4870,10 @@
         <v>246</v>
       </c>
       <c r="M35" s="7">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N35" s="7">
-        <v>84917</v>
+        <v>45581</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>247</v>
@@ -4627,10 +4891,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>312</v>
+        <v>172</v>
       </c>
       <c r="D36" s="7">
-        <v>298655</v>
+        <v>163285</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>250</v>
@@ -4642,10 +4906,10 @@
         <v>252</v>
       </c>
       <c r="H36" s="7">
-        <v>409</v>
+        <v>231</v>
       </c>
       <c r="I36" s="7">
-        <v>421692</v>
+        <v>214581</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>253</v>
@@ -4657,19 +4921,19 @@
         <v>255</v>
       </c>
       <c r="M36" s="7">
-        <v>721</v>
+        <v>403</v>
       </c>
       <c r="N36" s="7">
-        <v>720347</v>
+        <v>377866</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,46 +4942,46 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="D37" s="7">
-        <v>154224</v>
+        <v>97110</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="I37" s="7">
-        <v>184168</v>
+        <v>95363</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="N37" s="7">
-        <v>338392</v>
+        <v>192473</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>266</v>
@@ -4729,49 +4993,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" s="7">
-        <v>9250</v>
+        <v>5049</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="7">
+        <v>8</v>
+      </c>
+      <c r="I38" s="7">
+        <v>7496</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H38" s="7">
+      <c r="K38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" s="7">
         <v>14</v>
       </c>
-      <c r="I38" s="7">
-        <v>14446</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="N38" s="7">
+        <v>12545</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M38" s="7">
-        <v>24</v>
-      </c>
-      <c r="N38" s="7">
-        <v>23696</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D39" s="7">
-        <v>501580</v>
+        <v>291697</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4795,10 +5059,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I39" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -4810,10 +5074,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N39" s="7">
-        <v>1178422</v>
+        <v>634631</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -4827,55 +5091,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>38277</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7">
+        <v>4</v>
+      </c>
+      <c r="I40" s="7">
+        <v>4904</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H40" s="7">
-        <v>45</v>
-      </c>
-      <c r="I40" s="7">
-        <v>47430</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="M40" s="7">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>85707</v>
+        <v>4904</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,25 +5148,25 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>410</v>
+        <v>15</v>
       </c>
       <c r="D41" s="7">
-        <v>416492</v>
+        <v>13198</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>281</v>
       </c>
       <c r="H41" s="7">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="I41" s="7">
-        <v>301649</v>
+        <v>26138</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>282</v>
@@ -4914,19 +5178,19 @@
         <v>284</v>
       </c>
       <c r="M41" s="7">
-        <v>705</v>
+        <v>39</v>
       </c>
       <c r="N41" s="7">
-        <v>718141</v>
+        <v>39335</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,49 +5199,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1902</v>
+        <v>140</v>
       </c>
       <c r="D42" s="7">
-        <v>1937504</v>
+        <v>135370</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
-        <v>2064</v>
+        <v>178</v>
       </c>
       <c r="I42" s="7">
-        <v>2115729</v>
+        <v>207111</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
-        <v>3966</v>
+        <v>318</v>
       </c>
       <c r="N42" s="7">
-        <v>4053232</v>
+        <v>342481</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,43 +5250,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>817</v>
+        <v>61</v>
       </c>
       <c r="D43" s="7">
-        <v>836135</v>
+        <v>57114</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
-        <v>843</v>
+        <v>78</v>
       </c>
       <c r="I43" s="7">
-        <v>863413</v>
+        <v>88805</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" s="7">
-        <v>1660</v>
+        <v>139</v>
       </c>
       <c r="N43" s="7">
-        <v>1699549</v>
+        <v>145919</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>303</v>
@@ -5037,49 +5301,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>47249</v>
+        <v>4201</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>47754</v>
+        <v>6950</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N44" s="7">
-        <v>95003</v>
+        <v>11151</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,63 +5352,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>510</v>
+      </c>
+      <c r="N45" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>36</v>
+      </c>
+      <c r="D46" s="7">
+        <v>38277</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H46" s="7">
+        <v>45</v>
+      </c>
+      <c r="I46" s="7">
+        <v>47430</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M46" s="7">
+        <v>81</v>
+      </c>
+      <c r="N46" s="7">
+        <v>85707</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>410</v>
+      </c>
+      <c r="D47" s="7">
+        <v>416492</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H47" s="7">
+        <v>295</v>
+      </c>
+      <c r="I47" s="7">
+        <v>301649</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M47" s="7">
+        <v>705</v>
+      </c>
+      <c r="N47" s="7">
+        <v>718141</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1902</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1937503</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2064</v>
+      </c>
+      <c r="I48" s="7">
+        <v>2115729</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3966</v>
+      </c>
+      <c r="N48" s="7">
+        <v>4053232</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>817</v>
+      </c>
+      <c r="D49" s="7">
+        <v>836135</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H49" s="7">
+        <v>843</v>
+      </c>
+      <c r="I49" s="7">
+        <v>863413</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1660</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1699549</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>48</v>
+      </c>
+      <c r="D50" s="7">
+        <v>47249</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7">
+        <v>47</v>
+      </c>
+      <c r="I50" s="7">
+        <v>47754</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M50" s="7">
+        <v>95</v>
+      </c>
+      <c r="N50" s="7">
+        <v>95003</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3213</v>
       </c>
-      <c r="D45" s="7">
-        <v>3275658</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3275657</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3294</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3375975</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6507</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6651632</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>310</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5157,8 +5730,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ADC8F2-67C4-4DBD-BA71-AC37BFD60540}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C2B3C2-7EAB-488F-8343-1FCF61CE1511}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5174,7 +5747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5281,13 +5854,13 @@
         <v>13990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5296,13 +5869,13 @@
         <v>20860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5317,7 +5890,7 @@
         <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5905,13 @@
         <v>50247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -5347,13 +5920,13 @@
         <v>74904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>124</v>
@@ -5362,13 +5935,13 @@
         <v>125151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5956,13 @@
         <v>291637</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="H6" s="7">
         <v>244</v>
@@ -5398,13 +5971,13 @@
         <v>248775</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="M6" s="7">
         <v>528</v>
@@ -5413,13 +5986,13 @@
         <v>540413</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +6007,13 @@
         <v>88342</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -5449,13 +6022,13 @@
         <v>75476</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -5464,13 +6037,13 @@
         <v>163817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,7 +6064,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5500,13 +6073,13 @@
         <v>10215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -5521,7 +6094,7 @@
         <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +6162,13 @@
         <v>9152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5604,13 +6177,13 @@
         <v>17645</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5619,13 +6192,13 @@
         <v>26797</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +6213,13 @@
         <v>78274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5655,13 +6228,13 @@
         <v>57750</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -5670,13 +6243,13 @@
         <v>136024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +6264,13 @@
         <v>420731</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="H12" s="7">
         <v>340</v>
@@ -5706,10 +6279,10 @@
         <v>364743</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>170</v>
@@ -5721,13 +6294,13 @@
         <v>785474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +6315,13 @@
         <v>165500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -5757,28 +6330,28 @@
         <v>146529</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
       </c>
       <c r="N13" s="7">
-        <v>312029</v>
+        <v>312030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +6366,13 @@
         <v>12551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5808,13 +6381,13 @@
         <v>22427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -5826,10 +6399,10 @@
         <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,7 +6444,7 @@
         <v>1236</v>
       </c>
       <c r="N15" s="7">
-        <v>1295302</v>
+        <v>1295303</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5897,13 +6470,13 @@
         <v>7549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>422</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5912,13 +6485,13 @@
         <v>10587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>424</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5927,10 +6500,10 @@
         <v>18136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>153</v>
@@ -5948,13 +6521,13 @@
         <v>57960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5963,13 +6536,13 @@
         <v>65822</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>116</v>
@@ -5978,13 +6551,13 @@
         <v>123782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6572,13 @@
         <v>405070</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
         <v>400</v>
@@ -6014,13 +6587,13 @@
         <v>424195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="M18" s="7">
         <v>790</v>
@@ -6029,13 +6602,13 @@
         <v>829265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6623,13 @@
         <v>196629</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -6065,13 +6638,13 @@
         <v>184475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>357</v>
@@ -6080,13 +6653,13 @@
         <v>381104</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,10 +6677,10 @@
         <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -6116,13 +6689,13 @@
         <v>23775</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -6131,13 +6704,13 @@
         <v>36545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6778,13 @@
         <v>10111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6223,10 +6796,10 @@
         <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6235,10 +6808,10 @@
         <v>14504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>227</v>
@@ -6256,13 +6829,13 @@
         <v>43488</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -6271,13 +6844,13 @@
         <v>34887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -6286,13 +6859,13 @@
         <v>78375</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6880,13 @@
         <v>369544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="H24" s="7">
         <v>359</v>
@@ -6322,13 +6895,13 @@
         <v>407555</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="M24" s="7">
         <v>692</v>
@@ -6337,13 +6910,13 @@
         <v>777099</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,10 +6934,10 @@
         <v>222</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -6373,13 +6946,13 @@
         <v>151483</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>281</v>
@@ -6388,13 +6961,13 @@
         <v>318930</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6982,13 @@
         <v>23015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6424,13 +6997,13 @@
         <v>13454</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -6439,13 +7012,13 @@
         <v>36469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,10 +7089,10 @@
         <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -6528,13 +7101,13 @@
         <v>4185</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>238</v>
+        <v>499</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -6543,13 +7116,13 @@
         <v>8989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +7137,13 @@
         <v>16769</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -6579,13 +7152,13 @@
         <v>35454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>242</v>
+        <v>506</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -6594,13 +7167,13 @@
         <v>52223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +7188,13 @@
         <v>268092</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="H30" s="7">
         <v>244</v>
@@ -6630,13 +7203,13 @@
         <v>268308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="M30" s="7">
         <v>489</v>
@@ -6645,13 +7218,13 @@
         <v>536400</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +7239,13 @@
         <v>131694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="H31" s="7">
         <v>114</v>
@@ -6681,13 +7254,13 @@
         <v>124939</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="M31" s="7">
         <v>234</v>
@@ -6696,13 +7269,13 @@
         <v>256633</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,10 +7293,10 @@
         <v>111</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -6732,13 +7305,13 @@
         <v>10490</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -6747,13 +7320,13 @@
         <v>18561</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>269</v>
+        <v>532</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>273</v>
+        <v>533</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,43 +7394,43 @@
         <v>1908</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>535</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>497</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>5171</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>391</v>
+        <v>194</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>498</v>
+        <v>274</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>499</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>7079</v>
+        <v>1908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>500</v>
+        <v>158</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>465</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,49 +7439,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D35" s="7">
-        <v>34898</v>
+        <v>14926</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>502</v>
+        <v>350</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="H35" s="7">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I35" s="7">
-        <v>44222</v>
+        <v>16747</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="M35" s="7">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N35" s="7">
-        <v>79121</v>
+        <v>31674</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,49 +7490,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="D36" s="7">
-        <v>334528</v>
+        <v>190439</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="H36" s="7">
-        <v>423</v>
+        <v>214</v>
       </c>
       <c r="I36" s="7">
-        <v>454032</v>
+        <v>221409</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>515</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>549</v>
       </c>
       <c r="M36" s="7">
-        <v>722</v>
+        <v>384</v>
       </c>
       <c r="N36" s="7">
-        <v>788560</v>
+        <v>411849</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,49 +7541,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="D37" s="7">
-        <v>171249</v>
+        <v>89728</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>133</v>
+        <v>554</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="H37" s="7">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="I37" s="7">
-        <v>216600</v>
+        <v>97297</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="M37" s="7">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="N37" s="7">
-        <v>387849</v>
+        <v>187025</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,49 +7592,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D38" s="7">
-        <v>15022</v>
+        <v>10752</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="H38" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I38" s="7">
-        <v>21025</v>
+        <v>16618</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>57</v>
+        <v>566</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="M38" s="7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N38" s="7">
-        <v>36047</v>
+        <v>27370</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,10 +7643,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>503</v>
+        <v>281</v>
       </c>
       <c r="D39" s="7">
-        <v>557605</v>
+        <v>307754</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7085,10 +7658,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>692</v>
+        <v>342</v>
       </c>
       <c r="I39" s="7">
-        <v>741050</v>
+        <v>352071</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7100,10 +7673,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1195</v>
+        <v>623</v>
       </c>
       <c r="N39" s="7">
-        <v>1298655</v>
+        <v>659826</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7117,55 +7690,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>47513</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>533</v>
+        <v>194</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>534</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H40" s="7">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I40" s="7">
-        <v>62843</v>
+        <v>5171</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>353</v>
+        <v>570</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="M40" s="7">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>110356</v>
+        <v>5171</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>537</v>
+        <v>152</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,49 +7747,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="D41" s="7">
-        <v>281636</v>
+        <v>19972</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="H41" s="7">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="I41" s="7">
-        <v>313040</v>
+        <v>27475</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="M41" s="7">
-        <v>558</v>
+        <v>41</v>
       </c>
       <c r="N41" s="7">
-        <v>594676</v>
+        <v>47447</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>544</v>
+        <v>205</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>546</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,49 +7798,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1959</v>
+        <v>129</v>
       </c>
       <c r="D42" s="7">
-        <v>2089602</v>
+        <v>144088</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>547</v>
+        <v>404</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>549</v>
+        <v>171</v>
       </c>
       <c r="H42" s="7">
-        <v>2010</v>
+        <v>209</v>
       </c>
       <c r="I42" s="7">
-        <v>2167609</v>
+        <v>232623</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="M42" s="7">
-        <v>3969</v>
+        <v>338</v>
       </c>
       <c r="N42" s="7">
-        <v>4257211</v>
+        <v>376711</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,49 +7849,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>858</v>
+        <v>73</v>
       </c>
       <c r="D43" s="7">
-        <v>920862</v>
+        <v>81521</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="H43" s="7">
-        <v>834</v>
+        <v>109</v>
       </c>
       <c r="I43" s="7">
-        <v>899503</v>
+        <v>119303</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>488</v>
+        <v>590</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="M43" s="7">
-        <v>1692</v>
+        <v>182</v>
       </c>
       <c r="N43" s="7">
-        <v>1820364</v>
+        <v>200824</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,49 +7900,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D44" s="7">
-        <v>79153</v>
+        <v>4270</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>564</v>
+        <v>156</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>566</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="I44" s="7">
-        <v>101385</v>
+        <v>4407</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>567</v>
+        <v>454</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>568</v>
+        <v>158</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="M44" s="7">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="N44" s="7">
-        <v>180538</v>
+        <v>8677</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>571</v>
+        <v>143</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>354</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,63 +7951,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>222</v>
+      </c>
+      <c r="D45" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>350</v>
+      </c>
+      <c r="I45" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>572</v>
+      </c>
+      <c r="N45" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45</v>
+      </c>
+      <c r="D46" s="7">
+        <v>47513</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="7">
+        <v>56</v>
+      </c>
+      <c r="I46" s="7">
+        <v>62843</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M46" s="7">
+        <v>101</v>
+      </c>
+      <c r="N46" s="7">
+        <v>110356</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>267</v>
+      </c>
+      <c r="D47" s="7">
+        <v>281636</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H47" s="7">
+        <v>291</v>
+      </c>
+      <c r="I47" s="7">
+        <v>313040</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="M47" s="7">
+        <v>558</v>
+      </c>
+      <c r="N47" s="7">
+        <v>594676</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1959</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2089602</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2010</v>
+      </c>
+      <c r="I48" s="7">
+        <v>2167609</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3969</v>
+      </c>
+      <c r="N48" s="7">
+        <v>4257211</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>858</v>
+      </c>
+      <c r="D49" s="7">
+        <v>920862</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H49" s="7">
+        <v>834</v>
+      </c>
+      <c r="I49" s="7">
+        <v>899503</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1692</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1820364</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>73</v>
+      </c>
+      <c r="D50" s="7">
+        <v>79153</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="H50" s="7">
+        <v>94</v>
+      </c>
+      <c r="I50" s="7">
+        <v>101385</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="M50" s="7">
+        <v>167</v>
+      </c>
+      <c r="N50" s="7">
+        <v>180538</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3202</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3418765</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3285</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3544379</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6487</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6963144</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>310</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7447,8 +8329,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B73BC2-24E2-43AB-A377-6E9B39F790CC}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A68899E-4568-4D93-A779-2DB4AF15340F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7464,7 +8346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7571,13 +8453,13 @@
         <v>10749</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -7586,13 +8468,13 @@
         <v>15067</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -7604,10 +8486,10 @@
         <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +8504,13 @@
         <v>72430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -7637,13 +8519,13 @@
         <v>68515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -7652,13 +8534,13 @@
         <v>140945</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +8555,13 @@
         <v>223384</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
@@ -7688,13 +8570,13 @@
         <v>217389</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>590</v>
+        <v>654</v>
       </c>
       <c r="M6" s="7">
         <v>431</v>
@@ -7703,13 +8585,13 @@
         <v>440772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>593</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +8606,13 @@
         <v>96953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -7739,13 +8621,13 @@
         <v>85650</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>597</v>
+        <v>661</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>598</v>
+        <v>662</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -7754,13 +8636,13 @@
         <v>182603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>601</v>
+        <v>665</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +8657,13 @@
         <v>11857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>598</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7790,13 +8672,13 @@
         <v>8116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -7805,13 +8687,13 @@
         <v>19973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>532</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +8761,13 @@
         <v>11010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>675</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -7894,13 +8776,13 @@
         <v>10812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>612</v>
+        <v>678</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -7915,7 +8797,7 @@
         <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>531</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +8812,13 @@
         <v>59005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -7945,13 +8827,13 @@
         <v>65839</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>617</v>
+        <v>684</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>618</v>
+        <v>685</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -7960,13 +8842,13 @@
         <v>124844</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>620</v>
+        <v>687</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +8863,13 @@
         <v>318765</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>623</v>
+        <v>690</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>624</v>
+        <v>691</v>
       </c>
       <c r="H12" s="7">
         <v>311</v>
@@ -7996,13 +8878,13 @@
         <v>304081</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>625</v>
+        <v>692</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>626</v>
+        <v>693</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>627</v>
+        <v>694</v>
       </c>
       <c r="M12" s="7">
         <v>622</v>
@@ -8011,10 +8893,10 @@
         <v>622846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>629</v>
+        <v>696</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>35</v>
@@ -8032,13 +8914,13 @@
         <v>185750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>630</v>
+        <v>697</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>631</v>
+        <v>698</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>632</v>
+        <v>699</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -8047,13 +8929,13 @@
         <v>167444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>634</v>
+        <v>701</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>635</v>
+        <v>702</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -8062,13 +8944,13 @@
         <v>353194</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>703</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>636</v>
+        <v>704</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>637</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8965,13 @@
         <v>14048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>638</v>
+        <v>705</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>639</v>
+        <v>706</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -8098,13 +8980,13 @@
         <v>14386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>640</v>
+        <v>707</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>641</v>
+        <v>708</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -8113,13 +8995,13 @@
         <v>28434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>642</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,10 +9069,10 @@
         <v>4839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>710</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>111</v>
@@ -8202,13 +9084,13 @@
         <v>6239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>499</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>643</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -8220,10 +9102,10 @@
         <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>645</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +9120,13 @@
         <v>79226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>646</v>
+        <v>713</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>647</v>
+        <v>714</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>648</v>
+        <v>715</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -8253,13 +9135,13 @@
         <v>71875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>649</v>
+        <v>716</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>650</v>
+        <v>717</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>651</v>
+        <v>718</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
@@ -8268,13 +9150,13 @@
         <v>151100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>652</v>
+        <v>719</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>653</v>
+        <v>720</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>654</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +9171,13 @@
         <v>382712</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>655</v>
+        <v>722</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>656</v>
+        <v>723</v>
       </c>
       <c r="H18" s="7">
         <v>379</v>
@@ -8304,13 +9186,13 @@
         <v>377505</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>657</v>
+        <v>724</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>658</v>
+        <v>725</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>659</v>
+        <v>726</v>
       </c>
       <c r="M18" s="7">
         <v>744</v>
@@ -8319,13 +9201,13 @@
         <v>760218</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>660</v>
+        <v>727</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>661</v>
+        <v>728</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>662</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +9222,13 @@
         <v>186121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>663</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>664</v>
+        <v>730</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>665</v>
+        <v>731</v>
       </c>
       <c r="H19" s="7">
         <v>192</v>
@@ -8355,13 +9237,13 @@
         <v>189483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>666</v>
+        <v>732</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>668</v>
+        <v>734</v>
       </c>
       <c r="M19" s="7">
         <v>371</v>
@@ -8370,13 +9252,13 @@
         <v>375604</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>669</v>
+        <v>735</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>522</v>
+        <v>736</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>670</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +9273,13 @@
         <v>14231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>269</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -8406,13 +9288,13 @@
         <v>15461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -8421,13 +9303,13 @@
         <v>29692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>672</v>
+        <v>739</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,10 +9380,10 @@
         <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -8513,10 +9395,10 @@
         <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>674</v>
+        <v>741</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>638</v>
+        <v>705</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -8531,7 +9413,7 @@
         <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>675</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,13 +9428,13 @@
         <v>58562</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>676</v>
+        <v>743</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>677</v>
+        <v>744</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>678</v>
+        <v>745</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -8561,13 +9443,13 @@
         <v>54878</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>679</v>
+        <v>746</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>680</v>
+        <v>747</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -8576,13 +9458,13 @@
         <v>113441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>681</v>
+        <v>748</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>682</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>683</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,13 +9479,13 @@
         <v>353312</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>685</v>
+        <v>751</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>686</v>
+        <v>752</v>
       </c>
       <c r="H24" s="7">
         <v>330</v>
@@ -8612,13 +9494,13 @@
         <v>354582</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>687</v>
+        <v>753</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>688</v>
+        <v>754</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>689</v>
+        <v>755</v>
       </c>
       <c r="M24" s="7">
         <v>650</v>
@@ -8627,13 +9509,13 @@
         <v>707894</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>687</v>
+        <v>753</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>690</v>
+        <v>756</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,13 +9530,13 @@
         <v>213533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>691</v>
+        <v>757</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>693</v>
+        <v>759</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -8663,13 +9545,13 @@
         <v>204364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>695</v>
+        <v>761</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>696</v>
+        <v>762</v>
       </c>
       <c r="M25" s="7">
         <v>387</v>
@@ -8678,13 +9560,13 @@
         <v>417897</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>697</v>
+        <v>763</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>698</v>
+        <v>764</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>699</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8699,13 +9581,13 @@
         <v>12163</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>700</v>
+        <v>563</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>238</v>
+        <v>499</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>701</v>
+        <v>766</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -8714,13 +9596,13 @@
         <v>22754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>702</v>
+        <v>767</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>672</v>
+        <v>739</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>703</v>
+        <v>768</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -8729,13 +9611,13 @@
         <v>34917</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,7 +9688,7 @@
         <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>704</v>
+        <v>274</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>148</v>
@@ -8818,13 +9700,13 @@
         <v>7576</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>705</v>
+        <v>769</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>706</v>
+        <v>770</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8836,7 +9718,7 @@
         <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>707</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>156</v>
@@ -8854,13 +9736,13 @@
         <v>36669</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>708</v>
+        <v>771</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>709</v>
+        <v>772</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -8869,13 +9751,13 @@
         <v>32933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>711</v>
+        <v>774</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>712</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>713</v>
+        <v>775</v>
       </c>
       <c r="M29" s="7">
         <v>57</v>
@@ -8884,13 +9766,13 @@
         <v>69602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>714</v>
+        <v>776</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>715</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>716</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8905,13 +9787,13 @@
         <v>284108</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>719</v>
+        <v>780</v>
       </c>
       <c r="H30" s="7">
         <v>248</v>
@@ -8920,13 +9802,13 @@
         <v>284160</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>721</v>
+        <v>782</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="M30" s="7">
         <v>503</v>
@@ -8935,13 +9817,13 @@
         <v>568269</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>723</v>
+        <v>784</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>724</v>
+        <v>785</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>725</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,13 +9838,13 @@
         <v>143880</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>726</v>
+        <v>787</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>727</v>
+        <v>788</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>728</v>
+        <v>789</v>
       </c>
       <c r="H31" s="7">
         <v>143</v>
@@ -8971,13 +9853,13 @@
         <v>161095</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>729</v>
+        <v>790</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>730</v>
+        <v>791</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>731</v>
+        <v>792</v>
       </c>
       <c r="M31" s="7">
         <v>270</v>
@@ -8986,13 +9868,13 @@
         <v>304976</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>732</v>
+        <v>793</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>733</v>
+        <v>559</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>734</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,13 +9889,13 @@
         <v>11019</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>530</v>
+        <v>795</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -9022,13 +9904,13 @@
         <v>9926</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>735</v>
+        <v>796</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -9037,13 +9919,13 @@
         <v>20945</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>736</v>
+        <v>797</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>112</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>737</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,49 +9987,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>2702</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>738</v>
+        <v>274</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>739</v>
+        <v>102</v>
       </c>
       <c r="H34" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>8526</v>
+        <v>1033</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>69</v>
+        <v>799</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>269</v>
+        <v>599</v>
       </c>
       <c r="M34" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>11228</v>
+        <v>1033</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>425</v>
+        <v>800</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>740</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>15</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9156,49 +10038,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D35" s="7">
-        <v>35890</v>
+        <v>18055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>508</v>
+        <v>801</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
       <c r="H35" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I35" s="7">
-        <v>55556</v>
+        <v>26455</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>714</v>
+        <v>804</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>743</v>
+        <v>565</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>744</v>
+        <v>805</v>
       </c>
       <c r="M35" s="7">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="N35" s="7">
-        <v>91446</v>
+        <v>44509</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>745</v>
+        <v>280</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>746</v>
+        <v>806</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>747</v>
+        <v>807</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9207,49 +10089,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="D36" s="7">
-        <v>300804</v>
+        <v>176164</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>748</v>
+        <v>808</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="H36" s="7">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="I36" s="7">
-        <v>402840</v>
+        <v>202929</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>751</v>
+        <v>811</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>752</v>
+        <v>812</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>753</v>
+        <v>813</v>
       </c>
       <c r="M36" s="7">
-        <v>660</v>
+        <v>361</v>
       </c>
       <c r="N36" s="7">
-        <v>703643</v>
+        <v>379093</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>754</v>
+        <v>814</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>756</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,49 +10140,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D37" s="7">
-        <v>237675</v>
+        <v>130122</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>757</v>
+        <v>817</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>758</v>
+        <v>818</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>759</v>
+        <v>819</v>
       </c>
       <c r="H37" s="7">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="I37" s="7">
-        <v>294673</v>
+        <v>134989</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>760</v>
+        <v>820</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>761</v>
+        <v>821</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>762</v>
+        <v>822</v>
       </c>
       <c r="M37" s="7">
-        <v>501</v>
+        <v>253</v>
       </c>
       <c r="N37" s="7">
-        <v>532348</v>
+        <v>265111</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>763</v>
+        <v>823</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>764</v>
+        <v>824</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,49 +10191,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" s="7">
-        <v>12253</v>
+        <v>7984</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>766</v>
+        <v>826</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>462</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>767</v>
+        <v>827</v>
       </c>
       <c r="H38" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I38" s="7">
-        <v>13077</v>
+        <v>10439</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>68</v>
+        <v>679</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>768</v>
+        <v>388</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>769</v>
+        <v>542</v>
       </c>
       <c r="M38" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N38" s="7">
-        <v>25329</v>
+        <v>18423</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>770</v>
+        <v>828</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>112</v>
+        <v>829</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>771</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,10 +10242,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>625</v>
+        <v>323</v>
       </c>
       <c r="D39" s="7">
-        <v>589323</v>
+        <v>332325</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9375,10 +10257,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>652</v>
+        <v>352</v>
       </c>
       <c r="I39" s="7">
-        <v>774672</v>
+        <v>375845</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9390,10 +10272,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1277</v>
+        <v>675</v>
       </c>
       <c r="N39" s="7">
-        <v>1363995</v>
+        <v>708170</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9407,55 +10289,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>33860</v>
+        <v>2702</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>772</v>
+        <v>831</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>428</v>
+        <v>189</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="I40" s="7">
-        <v>55929</v>
+        <v>7493</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>536</v>
+        <v>111</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>643</v>
+        <v>468</v>
       </c>
       <c r="M40" s="7">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="N40" s="7">
-        <v>89788</v>
+        <v>10195</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>773</v>
+        <v>832</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>774</v>
+        <v>833</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>775</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9464,49 +10346,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="D41" s="7">
-        <v>341781</v>
+        <v>17835</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>777</v>
+        <v>835</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>778</v>
+        <v>836</v>
       </c>
       <c r="H41" s="7">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="I41" s="7">
-        <v>349596</v>
+        <v>29102</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>779</v>
+        <v>837</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>780</v>
+        <v>838</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>781</v>
+        <v>839</v>
       </c>
       <c r="M41" s="7">
-        <v>647</v>
+        <v>39</v>
       </c>
       <c r="N41" s="7">
-        <v>691377</v>
+        <v>46937</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>782</v>
+        <v>840</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>783</v>
+        <v>841</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,49 +10397,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1778</v>
+        <v>147</v>
       </c>
       <c r="D42" s="7">
-        <v>1863085</v>
+        <v>124640</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>785</v>
+        <v>843</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>786</v>
+        <v>844</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>787</v>
+        <v>845</v>
       </c>
       <c r="H42" s="7">
-        <v>1832</v>
+        <v>152</v>
       </c>
       <c r="I42" s="7">
-        <v>1940557</v>
+        <v>199910</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>788</v>
+        <v>846</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>789</v>
+        <v>847</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>790</v>
+        <v>848</v>
       </c>
       <c r="M42" s="7">
-        <v>3610</v>
+        <v>299</v>
       </c>
       <c r="N42" s="7">
-        <v>3803642</v>
+        <v>324550</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>791</v>
+        <v>849</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>792</v>
+        <v>850</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>793</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9566,49 +10448,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1021</v>
+        <v>128</v>
       </c>
       <c r="D43" s="7">
-        <v>1063912</v>
+        <v>107553</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>266</v>
+        <v>851</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>794</v>
+        <v>852</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>795</v>
+        <v>853</v>
       </c>
       <c r="H43" s="7">
-        <v>1035</v>
+        <v>120</v>
       </c>
       <c r="I43" s="7">
-        <v>1102710</v>
+        <v>159684</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>796</v>
+        <v>854</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>797</v>
+        <v>855</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>798</v>
+        <v>856</v>
       </c>
       <c r="M43" s="7">
-        <v>2056</v>
+        <v>248</v>
       </c>
       <c r="N43" s="7">
-        <v>2166622</v>
+        <v>267237</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>448</v>
+        <v>857</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>799</v>
+        <v>858</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>800</v>
+        <v>859</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,49 +10499,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D44" s="7">
-        <v>75570</v>
+        <v>4269</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>672</v>
+        <v>742</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>801</v>
+        <v>189</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="H44" s="7">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>83720</v>
+        <v>2638</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>345</v>
+        <v>157</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>803</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="N44" s="7">
-        <v>159290</v>
+        <v>6906</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>804</v>
+        <v>831</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>230</v>
+        <v>861</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>805</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9668,63 +10550,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>302</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>300</v>
+      </c>
+      <c r="I45" s="7">
+        <v>398827</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>602</v>
+      </c>
+      <c r="N45" s="7">
+        <v>655825</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>32</v>
+      </c>
+      <c r="D46" s="7">
+        <v>33860</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H46" s="7">
+        <v>52</v>
+      </c>
+      <c r="I46" s="7">
+        <v>55929</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M46" s="7">
+        <v>84</v>
+      </c>
+      <c r="N46" s="7">
+        <v>89788</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>315</v>
+      </c>
+      <c r="D47" s="7">
+        <v>341781</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="H47" s="7">
+        <v>332</v>
+      </c>
+      <c r="I47" s="7">
+        <v>349596</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="M47" s="7">
+        <v>647</v>
+      </c>
+      <c r="N47" s="7">
+        <v>691377</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1778</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1863085</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1832</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1940557</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3610</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3803642</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1021</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1063912</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1035</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1102710</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2056</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2166622</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>70</v>
+      </c>
+      <c r="D50" s="7">
+        <v>75570</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H50" s="7">
+        <v>76</v>
+      </c>
+      <c r="I50" s="7">
+        <v>83720</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="M50" s="7">
+        <v>146</v>
+      </c>
+      <c r="N50" s="7">
+        <v>159290</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3216</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3378208</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3327</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3532512</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6543</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6910720</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>310</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
